--- a/AE_prediction/data_descriptions.xlsx
+++ b/AE_prediction/data_descriptions.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gdrive\notebook\2104_FAERS\220221_for_github_v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\AE_prediction\AE_prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EB3C89-0C50-44E2-9878-D45C31C07DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AF9C94-9A32-4453-88AF-8AAE71F103C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="descriptions" sheetId="1" r:id="rId1"/>
+    <sheet name="references" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>folder_name</t>
     <phoneticPr fontId="1"/>
@@ -212,6 +213,88 @@
   </si>
   <si>
     <t>compounds list used in this study</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>source</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADMET predictor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reference</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pubchempy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PubChem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DrugBank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L1000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mol2vec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mold2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mordred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIDER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.northernsc.co.jp/ADMETPredictor.php</t>
+  </si>
+  <si>
+    <t>doi.org/10.1093/nar/gkaa971</t>
+  </si>
+  <si>
+    <t>https://github.com/mcs07/PubChemPy</t>
+  </si>
+  <si>
+    <t>doi: 10.1093/nar/gkx1037</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doi: 10.1016/j.cell.2017.10.049</t>
+  </si>
+  <si>
+    <t>doi: 10.1021/acs.jcim.7b00616</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doi: 10.1186/s13321-018-0258-y</t>
+  </si>
+  <si>
+    <t>doi: 10.1021/ci800038f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doi: 10.1093/nar/gkv1075</t>
+  </si>
+  <si>
+    <t>doi: 10.1093/nar/gkaa971</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -539,15 +622,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -744,6 +827,156 @@
       </c>
       <c r="C26" t="s">
         <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8180713B-6190-4B27-897A-74F83D0A573B}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
